--- a/output/StructureDefinition-PADI-DocumentReference.xlsx
+++ b/output/StructureDefinition-PADI-DocumentReference.xlsx
@@ -1548,48 +1548,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.81640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="74.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="52.00390625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.96484375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="84.22265625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="162.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="82.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="157.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-PADI-DocumentReference.xlsx
+++ b/output/StructureDefinition-PADI-DocumentReference.xlsx
@@ -505,7 +505,10 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-type</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pacio-adi/ValueSet/PADIAdvanceDirectiveCategoriesVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -544,9 +547,6 @@
   </si>
   <si>
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-documentreference-category</t>
@@ -1572,7 +1572,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.19921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.5546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3340,11 +3340,11 @@
         <v>43</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>43</v>
@@ -3377,34 +3377,34 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3426,13 +3426,13 @@
         <v>153</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3458,7 +3458,7 @@
         <v>43</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
@@ -3480,7 +3480,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3507,7 +3507,7 @@
         <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>43</v>
@@ -5016,7 +5016,7 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>276</v>

--- a/output/StructureDefinition-PADI-DocumentReference.xlsx
+++ b/output/StructureDefinition-PADI-DocumentReference.xlsx
@@ -1548,48 +1548,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.81640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.5546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.85546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="42.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.96484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.640625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="82.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="157.953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="81.6875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="155.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
